--- a/result/0-shot/Baichuan-13B/response/singledrug(chemical)/response.xlsx
+++ b/result/0-shot/Baichuan-13B/response/singledrug(chemical)/response.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>CoT</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,18 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>（A）硝普钠</t>
+          <t>在《中国高血压防治指南2018》中，高血压的分级与治疗策略如下：
+1. 1级高血压（轻度）：收缩压140-159mmHg或舒张压90-99mmHg。
+   - 生活方式干预作为首选，包括限制钠盐摄入、增加体力活动、维持健康体重、戒烟限酒等。
+   - 如果生活方式干预3个月后血压仍≥140/90mmHg，则应开始药物治疗。
+2. 2级高血压（中度）：收缩压160-179mmHg或舒张压100-109mmHg。
+   - 立即开始药物治疗，并鼓励患者采取生活方式干预。
+3. 3级高血压（重度）：收缩压≥180mmHg或舒张压≥110mmHg。
+   - 立即开始药物治疗，并鼓励患者采取生活方式干预。
+根据患者描述，患者为50岁，收缩压140mmHg，舒张压90mmHg，属于1级高血压（轻度）。因此，生活方式干预是首选的治疗方案。
+在提供的药物治疗方案中，硝普钠、美托洛尔、硝酸甘油、地高辛、乌拉地尔、硝苯地平都是用于治疗高血压的药物。然而，由于患者目前处于1级高血压阶段，首先应考虑使用钙通道阻滞剂（如硝苯地平）或血管紧张素转换酶抑制剂（ACEI）（如依那普利），而不是β受体阻滞剂（如美托洛尔）。
+阿司匹林通常用于预防血栓形成，而不是直接用于治疗高血压。
+综上所述，最合适的药物治疗方案可能是硝苯地平（G）。然而，在开始任何药物治疗之前，建议患者继续生活方式干预，并在3个月后复查血压，以评估是否需要药物治疗。</t>
         </is>
       </c>
     </row>
@@ -563,7 +574,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>（G）乌拉地尔</t>
+          <t>在《中国高血压防治指南2018》中，高血压的危险因素分层是根据患者的年龄、血压水平、其他心血管危险因素以及是否存在靶器官损害来确定的。
+根据您提供的患者信息，患者为50岁，收缩压（SBP）150 mmHg，舒张压（DBP）90 mmHg，属于1级高血压（轻度）。患者没有其他心血管危险因素（如糖尿病、高脂血症、吸烟、肥胖等），也没有靶器官损害（如冠心病、脑血管病、肾脏疾病等）的记录。因此，该患者属于低危组。
+根据指南，对于低危组的高血压患者，首选的治疗方案是生活方式干预，包括限制食盐摄入、增加体力活动、维持健康体重、戒烟限酒等。如果生活方式干预不能使血压达标，可以考虑使用降压药物。
+在给出的选项中，（A）地高辛、（B）倍他洛尔、（C）硝普钠、（D）硝酸甘油、（E）硫酸镁、（F）阿司匹林、（G）乌拉地尔都是用于治疗高血压的药物。但是，对于低危组的高血压患者，首选的治疗方案应该是生活方式干预，而不是直接使用降压药物。
+因此，根据《中国高血压防治指南2018》，最适合该患者的药物治疗方案是生活方式干预，而不是直接使用降压药物。</t>
         </is>
       </c>
     </row>
@@ -616,7 +631,23 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>（A）阿司匹林</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。
+根据患者的年龄、血压值（SBP 150 mmHg，DBP 90 mmHg），心率（70 bpm），以及实验室检查结果（GFR 100 ml/min*1.73/m²，血钾4.0 mmol/L，血肌酐60 μmol/L），我们可以进行以下分析：
+1. 根据年龄和血压值，患者属于高血压1级（轻度）。
+2. 心率在正常范围内。
+3. GFR（肾小球滤过率）为100 ml/min*1.73/m²，表明肾功能正常。
+4. 血钾和血肌酐水平正常，没有电解质紊乱的迹象。
+5. 患者已经采取了生活方式干预，但血压控制不佳，需要药物治疗。
+根据上述分析，我们可以进一步考虑药物治疗方案。在《中国高血压防治指南2018》中，对于轻度高血压的患者，首选的药物治疗方案是：
+- 利尿剂（如氢氯噻、呋塞米等）
+- 钙通道阻滞剂（如氨氯地平、硝苯地平等）
+- 血管紧张素转换酶抑制剂（ACEI）或血管紧张素受体阻滞剂（ARB）（如依那普利、缬沙坦等）
+根据这些药物类别，我们可以排除阿司匹林（A）和肼屈嗪（B），因为它们主要用于治疗心绞痛和心力衰竭，而不是高血压。
+莫索尼定（C）是一种中枢性抗高血压药，适用于治疗中度至重度高血压，但不适用于轻度高血压。
+北京降压0号（D）是一种复方制剂，包含多种成分，包括利尿剂和钙通道阻滞剂，适用于治疗中度至重度高血压。
+依那普利拉（E）是一种ACEI，适用于治疗高血压，尤其是伴有心脏病或糖尿病的高血压患者。
+美托洛尔（F）是一种β阻滞剂，适用于治疗高血压和心绞痛，也适用于治疗心力衰竭。
+根据患者的病情和药物适应症，最合适的药物治疗方案是依那普利拉（E），因为它适用于治疗高血压，尤其是伴有心脏病或糖尿病的高血压患者。</t>
         </is>
       </c>
     </row>
@@ -669,7 +700,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>（A）福辛普利</t>
+          <t>在《中国高血压防治指南2018》中，高血压的治疗策略是根据心血管疾病的危险因素进行分层的。根据患者的年龄、血压水平、其他危险因素以及并发症情况，将高血压患者分为低危组、中危组和高危组。
+对于低危组的患者，首选的生活方式干预，包括限制钠盐摄入、增加钾盐摄入、保持适量运动、维持健康体重、戒烟限酒、减少饱和脂肪和胆固醇的摄入等。如果生活方式干预后血压仍高于目标值，可以考虑使用降压药物。
+对于中危组的患者，除了生活方式干预外，还需要考虑使用降压药物。
+对于高危组的患者，需要立即开始降压治疗，并且可能需要联合用药。
+根据患者的描述，患者为52岁男性，收缩压（SBP）150 mmHg，舒张压（DBP）91 mmHg，心率70 bpm，实验室检查显示血钾浓度为6.0 mmol/L，血肌酐为70 μmol/L，无既往病史记录，无吸烟或饮酒史记录，无家族病史记录。
+根据这些数据，患者属于中危组的高血压患者，因此，除了生活方式干预外，还需要考虑使用降压药物。
+在提供的选项中，（A）福辛普利、（B）咪哒普利、（C）赖诺普利、（D）螺内酯、（E）莫索尼定、（F）依那普利、（G）非洛地平缓释片都是用于治疗高血压的药物。
+由于患者没有特定的并发症，如糖尿病、心脏病、肾脏病等疾病，因此，可以选择任何一种降压药物作为初始治疗。
+考虑到患者的血压水平，可以选择（A）福辛普利，因为它是一种血管紧张素转化酶抑制剂，可以扩张血管，降低血压，同时还有保护心脏和肾脏的作用。</t>
         </is>
       </c>
     </row>
@@ -722,7 +761,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>（B）西拉普利</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据血压值、年龄、性别、其他危险因素（如血脂异常、糖尿病、吸烟、肥胖等）以及靶器官损害（如左心室肥厚、肾功能不全等）。
+在本例中，患者为52岁男性，收缩压（SBP）150 mmHg，舒张压（DBP）91 mmHg，属于1级高血压（轻度）。患者无其他危险因素和靶器官损害记录，因此根据《中国高血压防治指南2018》，该患者属于低危组。
+在药物治疗方案的选择上，指南推荐对于低危组的高血压患者，首选ACEI（血管紧张素转化酶抑制剂）或ARB（血管紧张素受体阻滞剂）类药物，如西拉普利。
+因此，根据上述分析，最合适的药物治疗方案是：
+（B）西拉普利</t>
         </is>
       </c>
     </row>
@@ -775,7 +818,23 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>（B）美托洛尔平片</t>
+          <t>在评估该患者的药物治疗方案时，我们需要考虑其心血管疾病的危险因素分层。根据《中国高血压防治指南2018》，高血压患者的危险因素分层主要依据年龄、血压水平、其他心血管危险因素以及并发症情况。
+患者信息：53岁男性，属于中青年人群。
+体格检查：收缩压（SBP）153 mmHg，舒张压（DBP）92 mmHg，属于2级高血压。
+辅助检查：血钾浓度为4.0 mmol/L，血肌酐为70 μmol/L，表明患者无肾功能不全。
+药物治疗史：已采取生活方式干预，但血压控制不佳。
+既往史、手术史和个人史：无其他重要心血管危险因素。
+家族史：无家族病史记录。
+根据上述信息，患者属于2级高血压，无其他心血管危险因素，因此属于中危组。
+在《中国高血压防治指南2018》中，对于中危组的高血压患者，首选的药物治疗方案是ACEI（血管紧张素转换酶抑制剂）或ARB（血管紧张素受体阻滞剂），其次为钙通道阻滞剂（CCB）如氨氯地平、非洛地平、硝苯地平、尼群地平等。
+因此，对于该患者，最合适的药物治疗方案是：
+（B）美托洛尔平片
+（C）维拉帕米缓释片
+（D）硝普钠
+（E）卡维地洛
+（F）吲哒帕胺缓释片
+（G）阿罗洛尔
+其中，美托洛尔平片、维拉帕米缓释片、卡维地洛和阿罗洛尔都是β受体阻滞剂，硝普钠是一种直接血管扩张剂，吲哒帕胺缓释片是一种利尿剂，这些药物都可以用于高血压的治疗。然而，考虑到患者的年轻年龄和血压水平，β受体阻滞剂可能是最合适的选择，因为它们不仅有助于降低血压，还有助于降低心血管事件的风险。</t>
         </is>
       </c>
     </row>
@@ -828,7 +887,18 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>（A）吲哒帕胺缓释片</t>
+          <t>根据《中国高血压防治指南2018》，高血压的危险因素分层主要依据年龄、血压水平、是否有其他心血管危险因素以及是否存在靶器官损害。
+对于这位53岁的男性患者，他的收缩压（SBP）为153 mmHg，舒张压（DBP）为92 mmHg，属于1级高血压（根据《中国高血压防治指南2018》，1级高血压定义为SBP在140-159 mmHg或DBP在90-99 mmHg）。他没有任何其他心血管危险因素或靶器官损害的证据，因此他属于低危组。
+在药物治疗方案的选择上，指南推荐对于低危组的患者，首选ACEI（血管紧张素转化酶抑制剂）、ARB（血管紧张素受体阻滞剂）、CCB（钙通道阻滞剂）或利尿剂中的任意一种。
+根据上述分析，以下是对应的药物治疗方案：
+（A）吲哒帕胺缓释片 - 属于CCB类降压药
+（B）北京降压0号 - 含有多种成分，包括利尿剂和β受体阻滞剂
+（C）莫索尼定 - 属于中枢性抗高血压药
+（D）乌拉地尔 - 属于α受体阻滞剂
+（E）肼屈嗪 - 属于直接血管扩张剂
+（F）硝酸甘油 - 属于静脉扩张剂，常用于治疗心绞痛
+（G）甲基多巴 - 属于直接血管扩张剂
+根据患者的血压水平和风险分层，最合适的药物治疗方案是（A）吲哒帕胺缓释片。</t>
         </is>
       </c>
     </row>
@@ -881,7 +951,10 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>（B）利血平</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病的危险因素分层主要依据年龄、血压、血脂、血糖、尿蛋白、心电图、心脏超声、颈动脉超声等指标。对于75岁的男性高血压患者，如果收缩压为145 mmHg，属于1级高血压；舒张压69 mmHg，属于正常范围。
+根据上述信息，我们可以初步判断该患者的心血管疾病风险属于中等水平。然而，由于缺乏其他详细的心血管疾病危险因素信息，如血脂、血糖、尿蛋白、心电图、心脏超声、颈动脉超声等，我们无法进行更精确的风险分层。
+在药物治疗方面，《中国高血压防治指南2018》推荐使用ACEI、ARB、CCB、利尿剂和β受体阻滞剂等五大类降压药。对于75岁的男性高血压患者，可以考虑使用ACEI或ARB类药物，因为这些药物对肾功能有保护作用，且对老年患者较为安全。
+因此，根据患者的年龄和血压情况，以及缺乏其他详细的心血管疾病危险因素信息，我们可以初步判断，对于该患者来说，缬沙坦（D）可能是一个合适的治疗选择。但是，最终的治疗方案需要根据患者的整体健康状况和具体的心血管疾病危险因素来确定。</t>
         </is>
       </c>
     </row>
@@ -934,7 +1007,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>（A）巴尼地平</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据年龄、血压水平、血脂水平、血糖水平和是否存在其他心血管疾病风险因素。
+对于这位78岁的男性高血压患者，他的收缩压为155 mmHg，属于1级高血压（轻度）。同时，他的舒张压为57 mmHg，属于正常范围。因此，他的高血压属于单纯收缩期高血压。
+此外，他的血钾浓度为4.0 mmol/L，略低于正常值（3.5-5.0 mmol/L），但并未达到需要干预的水平。血肌酐为70 μmol/L，处于正常范围。
+由于患者没有糖尿病、高血脂或其他心血管疾病的风险因素，他的心血管疾病风险分层属于低危。
+根据这些信息，我们可以排除一些不适合的药物方案。例如，米诺地尔主要用于治疗男性型秃发，硝酸甘油主要用于治疗心绞痛，可乐定主要用于治疗高血压，甲基多巴主要用于治疗帕金森病，美托洛尔主要用于治疗心绞痛和心律失常，多沙唑嗪主要用于治疗前列腺增生和高血压。
+剩下的药物中，巴尼地平是一种钙通道阻滞剂，主要用于治疗高血压；美托洛尔也是一种钙通道阻滞剂，主要用于治疗高血压和心绞痛；多沙唑嗪是一种α受体阻滞剂，主要用于治疗前列腺增生和高血压。
+考虑到患者的年龄和血压水平，以及他的低危心血管疾病风险分层，我倾向于选择一种对老年人和收缩压升高有良好疗效的药物。在钙通道阻滞剂和美托洛尔之间，美托洛尔通常用于心绞痛的治疗，而巴尼地平则更适合治疗单纯收缩期高血压。
+因此，我推荐使用（A）巴尼地平作为该患者的治疗方案。</t>
         </is>
       </c>
     </row>
@@ -987,7 +1067,29 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>（C）赖诺普利</t>
+          <t>根据《中国高血压防治指南2018》，高血压的诊断标准是：
+- 正常血压：收缩压（SBP）≤120 mmHg 和 舒张压（DBP）≤80 mmHg
+- 高血压：SBP ≥140 mmHg 或 DBP ≥90 mmHg
+- 1级高血压（轻度）：140-159 mmHg / 90-99 mmHg
+- 2级高血压（中度）：160-179 mmHg / 100-109 mmHg
+- 3级高血压（重度）：≥180 mmHg / ≥110 mmHg
+根据您提供的信息，该患者的SBP为155 mmHg，属于2级高血压（中度）。
+在考虑治疗方案时，还需要考虑其他心血管疾病的危险因素，如年龄、性别、血脂水平、血糖水平、体重指数（BMI）、吸烟史、家族史等。
+根据您提供的信息，该患者的年龄为78岁，男性，无吸烟或饮酒史，无家族史，无其他心血管疾病的风险因素。
+因此，根据《中国高血压防治指南2018》，对于2级高血压患者，首选的治疗方案是：
+- 单药治疗：ACEI（血管紧张素转化酶抑制剂）、ARB（血管紧张素受体阻滞剂）、CCB（钙通道阻滞剂）、利尿剂
+- 联合治疗：如果单药治疗效果不佳，可以考虑两种药物联合治疗
+根据上述信息，我们可以排除利血平（A）、阿司匹林（B）、赖诺普利（C）、莫索尼定（D）、可乐定（F），因为这些药物不是针对2级高血压的首选治疗方案。
+北京降压0号（E）是一种复方制剂，包含多种降压药，适用于轻、中度高血压，但并非针对2级高血压的首选治疗方案。
+生理盐水（G）不是药物治疗方案，所以也不适合。
+综上所述，最合适的药物治疗方案是：
+- 单药治疗：ACEI、ARB、CCB、利尿剂
+- 联合治疗：如果单药治疗效果不佳，可以考虑两种药物联合治疗
+因此，最合适的药物治疗方案是：
+- ACEI（如赖诺普利）
+- ARB（如缬沙坦）
+- CCB（如氨氯地平）
+- 利尿剂（如氢氯噻嗪）</t>
         </is>
       </c>
     </row>
